--- a/ShakeAug/test_results.xlsx
+++ b/ShakeAug/test_results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29725"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c6bdbd3c680e491/Research/code/Machine_Learning/ShakeAug/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_531C6B15DF61E646E72D5E1E38315D6C7536BD18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13000"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mnist" sheetId="1" r:id="rId1"/>
@@ -142,14 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,160 +161,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Wingdings 2"/>
-      <charset val="134"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,210 +187,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -534,256 +212,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -807,71 +243,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1121,51 +516,51 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="16.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="17.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="11.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="13.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="9.18181818181818" customWidth="1"/>
-    <col min="10" max="10" width="9.63636363636364" customWidth="1"/>
-    <col min="11" max="11" width="40.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="40.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1197,8 +592,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1224,8 +619,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -1249,8 +644,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -1274,8 +669,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1299,8 +694,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1324,8 +719,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1351,8 +746,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1376,8 +771,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1401,8 +796,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1426,8 +821,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1451,8 +846,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1478,8 +873,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1503,8 +898,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
@@ -1528,8 +923,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -1553,8 +948,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
@@ -1578,8 +973,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1605,8 +1000,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
@@ -1630,8 +1025,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
@@ -1655,8 +1050,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
@@ -1680,8 +1075,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
@@ -1705,8 +1100,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1732,8 +1127,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
@@ -1757,8 +1152,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
@@ -1782,8 +1177,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
@@ -1807,8 +1202,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
@@ -1832,8 +1227,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1859,8 +1254,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
       <c r="B35" s="4" t="s">
         <v>15</v>
       </c>
@@ -1884,8 +1279,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
       <c r="B36" s="6" t="s">
         <v>15</v>
       </c>
@@ -1909,8 +1304,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
       <c r="B37" s="4" t="s">
         <v>15</v>
       </c>
@@ -1934,8 +1329,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
       <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
@@ -1959,8 +1354,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1986,8 +1381,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
       <c r="B41" s="4" t="s">
         <v>15</v>
       </c>
@@ -2011,8 +1406,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
       <c r="B42" s="6" t="s">
         <v>15</v>
       </c>
@@ -2036,8 +1431,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
       <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
@@ -2061,8 +1456,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
       <c r="B44" s="6" t="s">
         <v>15</v>
       </c>
@@ -2086,8 +1481,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2113,8 +1508,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
       <c r="B47" s="4" t="s">
         <v>15</v>
       </c>
@@ -2138,8 +1533,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
       <c r="B48" s="6" t="s">
         <v>15</v>
       </c>
@@ -2163,8 +1558,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
       <c r="B49" s="4" t="s">
         <v>15</v>
       </c>
@@ -2188,8 +1583,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
       <c r="B50" s="6" t="s">
         <v>15</v>
       </c>
@@ -2213,8 +1608,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -2240,8 +1635,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
         <v>15</v>
       </c>
@@ -2265,8 +1660,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
       <c r="B55" s="6" t="s">
         <v>15</v>
       </c>
@@ -2290,8 +1685,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
         <v>15</v>
       </c>
@@ -2315,8 +1710,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
       <c r="B57" s="6" t="s">
         <v>15</v>
       </c>
@@ -2340,8 +1735,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2367,8 +1762,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
       <c r="B60" s="4" t="s">
         <v>15</v>
       </c>
@@ -2392,8 +1787,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
       <c r="B61" s="6" t="s">
         <v>15</v>
       </c>
@@ -2417,8 +1812,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
       <c r="B62" s="4" t="s">
         <v>15</v>
       </c>
@@ -2442,8 +1837,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
       <c r="B63" s="6" t="s">
         <v>15</v>
       </c>
@@ -2467,8 +1862,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2494,8 +1889,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
       <c r="B67" s="4" t="s">
         <v>15</v>
       </c>
@@ -2519,8 +1914,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
       <c r="B68" s="6" t="s">
         <v>15</v>
       </c>
@@ -2544,8 +1939,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
         <v>15</v>
       </c>
@@ -2569,8 +1964,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
       <c r="B70" s="6" t="s">
         <v>15</v>
       </c>
@@ -2594,8 +1989,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -2621,8 +2016,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
       <c r="B74" s="4" t="s">
         <v>15</v>
       </c>
@@ -2646,8 +2041,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
       <c r="B75" s="6" t="s">
         <v>15</v>
       </c>
@@ -2671,8 +2066,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
       <c r="B76" s="4" t="s">
         <v>15</v>
       </c>
@@ -2696,8 +2091,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
       <c r="B77" s="6" t="s">
         <v>15</v>
       </c>
@@ -2721,8 +2116,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -2748,8 +2143,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
       <c r="B81" s="4" t="s">
         <v>15</v>
       </c>
@@ -2773,8 +2168,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
       <c r="B82" s="6" t="s">
         <v>15</v>
       </c>
@@ -2798,8 +2193,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
       <c r="B83" s="4" t="s">
         <v>15</v>
       </c>
@@ -2823,8 +2218,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
       <c r="B84" s="6" t="s">
         <v>15</v>
       </c>
@@ -2848,8 +2243,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -2875,8 +2270,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
       <c r="B88" s="4" t="s">
         <v>15</v>
       </c>
@@ -2900,8 +2295,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
       <c r="B89" s="6" t="s">
         <v>15</v>
       </c>
@@ -2925,8 +2320,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
       <c r="B90" s="4" t="s">
         <v>15</v>
       </c>
@@ -2950,8 +2345,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
       <c r="B91" s="6" t="s">
         <v>15</v>
       </c>
@@ -2975,8 +2370,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3002,8 +2397,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
       <c r="B95" s="4" t="s">
         <v>15</v>
       </c>
@@ -3027,8 +2422,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
       <c r="B96" s="6" t="s">
         <v>15</v>
       </c>
@@ -3052,8 +2447,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
       <c r="B97" s="4" t="s">
         <v>15</v>
       </c>
@@ -3077,8 +2472,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
       <c r="B98" s="6" t="s">
         <v>15</v>
       </c>
@@ -3102,8 +2497,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3129,8 +2524,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
       <c r="B102" s="4" t="s">
         <v>15</v>
       </c>
@@ -3154,8 +2549,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
       <c r="B103" s="6" t="s">
         <v>15</v>
       </c>
@@ -3179,8 +2574,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="1"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
       <c r="B104" s="4" t="s">
         <v>15</v>
       </c>
@@ -3204,8 +2599,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
       <c r="B105" s="6" t="s">
         <v>15</v>
       </c>
@@ -3229,8 +2624,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3256,8 +2651,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
       <c r="B109" s="4" t="s">
         <v>15</v>
       </c>
@@ -3281,8 +2676,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
       <c r="B110" s="6" t="s">
         <v>15</v>
       </c>
@@ -3306,8 +2701,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
       <c r="B111" s="4" t="s">
         <v>15</v>
       </c>
@@ -3331,8 +2726,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
       <c r="B112" s="6" t="s">
         <v>15</v>
       </c>
@@ -3358,75 +2753,74 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A40:A44"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A108:A112"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="16.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="17.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="11.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="13.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="9.18181818181818" customWidth="1"/>
-    <col min="10" max="10" width="9.63636363636364" customWidth="1"/>
-    <col min="11" max="11" width="40.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="40.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" customFormat="1" spans="1:10">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3458,8 +2852,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3485,8 +2879,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3510,8 +2904,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -3535,8 +2929,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -3560,8 +2954,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -3585,9 +2979,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="1"/>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3613,8 +3006,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -3638,8 +3031,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -3663,8 +3056,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -3688,8 +3081,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
@@ -3713,9 +3106,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="1"/>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3741,8 +3133,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
@@ -3766,8 +3158,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
@@ -3791,8 +3183,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -3816,8 +3208,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
@@ -3841,9 +3233,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="1"/>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3869,8 +3260,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
@@ -3894,8 +3285,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
@@ -3919,8 +3310,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
@@ -3944,8 +3335,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
@@ -3969,9 +3360,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="1"/>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3997,8 +3387,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
@@ -4022,8 +3412,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
@@ -4047,8 +3437,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
@@ -4072,8 +3462,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
@@ -4097,10 +3487,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -4126,8 +3514,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
       <c r="B35" s="4" t="s">
         <v>15</v>
       </c>
@@ -4151,8 +3539,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
       <c r="B36" s="6" t="s">
         <v>15</v>
       </c>
@@ -4176,8 +3564,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
       <c r="B37" s="4" t="s">
         <v>15</v>
       </c>
@@ -4201,8 +3589,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
       <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
@@ -4226,9 +3614,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" customFormat="1"/>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4254,8 +3641,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
       <c r="B41" s="4" t="s">
         <v>15</v>
       </c>
@@ -4279,8 +3666,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
       <c r="B42" s="6" t="s">
         <v>15</v>
       </c>
@@ -4304,8 +3691,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
       <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
@@ -4329,8 +3716,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
       <c r="B44" s="6" t="s">
         <v>15</v>
       </c>
@@ -4354,9 +3741,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -4382,8 +3768,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
       <c r="B47" s="4" t="s">
         <v>15</v>
       </c>
@@ -4407,8 +3793,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
       <c r="B48" s="6" t="s">
         <v>15</v>
       </c>
@@ -4432,8 +3818,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
       <c r="B49" s="4" t="s">
         <v>15</v>
       </c>
@@ -4457,8 +3843,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
       <c r="B50" s="6" t="s">
         <v>15</v>
       </c>
@@ -4482,10 +3868,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -4511,8 +3895,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
         <v>15</v>
       </c>
@@ -4536,8 +3920,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
       <c r="B55" s="6" t="s">
         <v>15</v>
       </c>
@@ -4561,8 +3945,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
         <v>15</v>
       </c>
@@ -4586,8 +3970,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
       <c r="B57" s="6" t="s">
         <v>15</v>
       </c>
@@ -4611,9 +3995,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" customFormat="1"/>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -4639,8 +4022,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
       <c r="B60" s="4" t="s">
         <v>15</v>
       </c>
@@ -4664,8 +4047,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
       <c r="B61" s="6" t="s">
         <v>15</v>
       </c>
@@ -4689,8 +4072,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
       <c r="B62" s="4" t="s">
         <v>15</v>
       </c>
@@ -4714,8 +4097,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
       <c r="B63" s="6" t="s">
         <v>15</v>
       </c>
@@ -4739,10 +4122,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -4768,8 +4149,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
       <c r="B67" s="4" t="s">
         <v>15</v>
       </c>
@@ -4793,8 +4174,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
       <c r="B68" s="6" t="s">
         <v>15</v>
       </c>
@@ -4818,8 +4199,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
         <v>15</v>
       </c>
@@ -4843,8 +4224,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
       <c r="B70" s="6" t="s">
         <v>15</v>
       </c>
@@ -4868,10 +4249,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -4897,8 +4276,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
       <c r="B74" s="4" t="s">
         <v>15</v>
       </c>
@@ -4922,8 +4301,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
       <c r="B75" s="6" t="s">
         <v>15</v>
       </c>
@@ -4947,8 +4326,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
       <c r="B76" s="4" t="s">
         <v>15</v>
       </c>
@@ -4972,8 +4351,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
       <c r="B77" s="6" t="s">
         <v>15</v>
       </c>
@@ -4997,10 +4376,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -5026,8 +4403,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
       <c r="B81" s="4" t="s">
         <v>15</v>
       </c>
@@ -5051,8 +4428,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
       <c r="B82" s="6" t="s">
         <v>15</v>
       </c>
@@ -5076,8 +4453,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
       <c r="B83" s="4" t="s">
         <v>15</v>
       </c>
@@ -5101,8 +4478,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
       <c r="B84" s="6" t="s">
         <v>15</v>
       </c>
@@ -5126,10 +4503,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" customFormat="1"/>
-    <row r="86" customFormat="1"/>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -5155,8 +4530,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
       <c r="B88" s="4" t="s">
         <v>15</v>
       </c>
@@ -5180,8 +4555,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
       <c r="B89" s="6" t="s">
         <v>15</v>
       </c>
@@ -5205,8 +4580,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
       <c r="B90" s="4" t="s">
         <v>15</v>
       </c>
@@ -5230,8 +4605,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
       <c r="B91" s="6" t="s">
         <v>15</v>
       </c>
@@ -5255,10 +4630,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" customFormat="1"/>
-    <row r="93" customFormat="1"/>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -5284,8 +4657,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
       <c r="B95" s="4" t="s">
         <v>15</v>
       </c>
@@ -5309,8 +4682,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
       <c r="B96" s="6" t="s">
         <v>15</v>
       </c>
@@ -5334,8 +4707,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
       <c r="B97" s="4" t="s">
         <v>15</v>
       </c>
@@ -5359,8 +4732,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
       <c r="B98" s="6" t="s">
         <v>15</v>
       </c>
@@ -5384,10 +4757,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" customFormat="1"/>
-    <row r="100" customFormat="1"/>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5413,8 +4784,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
       <c r="B102" s="4" t="s">
         <v>15</v>
       </c>
@@ -5438,8 +4809,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
       <c r="B103" s="6" t="s">
         <v>15</v>
       </c>
@@ -5463,8 +4834,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="1"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
       <c r="B104" s="4" t="s">
         <v>15</v>
       </c>
@@ -5488,8 +4859,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
       <c r="B105" s="6" t="s">
         <v>15</v>
       </c>
@@ -5513,10 +4884,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" customFormat="1"/>
-    <row r="107" customFormat="1"/>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -5542,8 +4911,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
       <c r="B109" s="4" t="s">
         <v>15</v>
       </c>
@@ -5567,8 +4936,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
       <c r="B110" s="6" t="s">
         <v>15</v>
       </c>
@@ -5592,8 +4961,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
       <c r="B111" s="4" t="s">
         <v>15</v>
       </c>
@@ -5617,8 +4986,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
       <c r="B112" s="6" t="s">
         <v>15</v>
       </c>
@@ -5644,75 +5013,74 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A40:A44"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A108:A112"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="16.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="22.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="17.2727272727273" customWidth="1"/>
-    <col min="7" max="7" width="11.0909090909091" customWidth="1"/>
-    <col min="8" max="8" width="13.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="9.18181818181818" customWidth="1"/>
-    <col min="10" max="10" width="9.63636363636364" customWidth="1"/>
-    <col min="11" max="11" width="40.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="40.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" customFormat="1" spans="1:10">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5744,8 +5112,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -5771,8 +5139,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -5796,8 +5164,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
@@ -5821,8 +5189,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -5846,8 +5214,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -5871,9 +5239,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="1"/>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -5899,8 +5266,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -5924,8 +5291,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -5949,8 +5316,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -5974,8 +5341,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
@@ -5999,9 +5366,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="1"/>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -6027,8 +5393,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
@@ -6052,8 +5418,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
@@ -6077,8 +5443,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -6102,8 +5468,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
@@ -6127,9 +5493,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="1"/>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -6155,8 +5520,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
@@ -6180,8 +5545,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
       <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
@@ -6205,8 +5570,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
@@ -6230,8 +5595,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="6" t="s">
         <v>15</v>
       </c>
@@ -6255,9 +5620,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="1"/>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -6283,8 +5647,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
@@ -6308,8 +5672,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
@@ -6333,8 +5697,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
@@ -6358,8 +5722,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
@@ -6383,10 +5747,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" customFormat="1"/>
-    <row r="33" customFormat="1"/>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -6412,8 +5774,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
       <c r="B35" s="4" t="s">
         <v>15</v>
       </c>
@@ -6437,8 +5799,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
       <c r="B36" s="6" t="s">
         <v>15</v>
       </c>
@@ -6462,8 +5824,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
       <c r="B37" s="4" t="s">
         <v>15</v>
       </c>
@@ -6487,8 +5849,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
       <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
@@ -6512,9 +5874,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" customFormat="1"/>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -6540,8 +5901,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
       <c r="B41" s="4" t="s">
         <v>15</v>
       </c>
@@ -6565,8 +5926,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
       <c r="B42" s="6" t="s">
         <v>15</v>
       </c>
@@ -6590,8 +5951,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
       <c r="B43" s="4" t="s">
         <v>15</v>
       </c>
@@ -6615,8 +5976,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
       <c r="B44" s="6" t="s">
         <v>15</v>
       </c>
@@ -6640,9 +6001,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -6668,8 +6028,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
       <c r="B47" s="4" t="s">
         <v>15</v>
       </c>
@@ -6693,8 +6053,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
       <c r="B48" s="6" t="s">
         <v>15</v>
       </c>
@@ -6718,8 +6078,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
       <c r="B49" s="4" t="s">
         <v>15</v>
       </c>
@@ -6743,8 +6103,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
       <c r="B50" s="6" t="s">
         <v>15</v>
       </c>
@@ -6768,10 +6128,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -6797,8 +6155,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
         <v>15</v>
       </c>
@@ -6822,8 +6180,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
       <c r="B55" s="6" t="s">
         <v>15</v>
       </c>
@@ -6847,8 +6205,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
         <v>15</v>
       </c>
@@ -6872,8 +6230,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
       <c r="B57" s="6" t="s">
         <v>15</v>
       </c>
@@ -6897,9 +6255,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" customFormat="1"/>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -6925,8 +6282,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
       <c r="B60" s="4" t="s">
         <v>15</v>
       </c>
@@ -6950,8 +6307,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
       <c r="B61" s="6" t="s">
         <v>15</v>
       </c>
@@ -6975,8 +6332,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
       <c r="B62" s="4" t="s">
         <v>15</v>
       </c>
@@ -7000,8 +6357,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
       <c r="B63" s="6" t="s">
         <v>15</v>
       </c>
@@ -7025,10 +6382,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -7054,8 +6409,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
       <c r="B67" s="4" t="s">
         <v>15</v>
       </c>
@@ -7079,8 +6434,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
       <c r="B68" s="6" t="s">
         <v>15</v>
       </c>
@@ -7104,8 +6459,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
         <v>15</v>
       </c>
@@ -7129,8 +6484,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
       <c r="B70" s="6" t="s">
         <v>15</v>
       </c>
@@ -7154,10 +6509,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -7183,8 +6536,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
       <c r="B74" s="4" t="s">
         <v>15</v>
       </c>
@@ -7208,8 +6561,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
       <c r="B75" s="6" t="s">
         <v>15</v>
       </c>
@@ -7233,8 +6586,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
       <c r="B76" s="4" t="s">
         <v>15</v>
       </c>
@@ -7258,8 +6611,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
       <c r="B77" s="6" t="s">
         <v>15</v>
       </c>
@@ -7283,10 +6636,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -7312,8 +6663,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
       <c r="B81" s="4" t="s">
         <v>15</v>
       </c>
@@ -7337,8 +6688,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
       <c r="B82" s="6" t="s">
         <v>15</v>
       </c>
@@ -7362,8 +6713,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
       <c r="B83" s="4" t="s">
         <v>15</v>
       </c>
@@ -7387,8 +6738,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
       <c r="B84" s="6" t="s">
         <v>15</v>
       </c>
@@ -7412,10 +6763,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" customFormat="1"/>
-    <row r="86" customFormat="1"/>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -7441,8 +6790,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
       <c r="B88" s="4" t="s">
         <v>15</v>
       </c>
@@ -7466,8 +6815,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
       <c r="B89" s="6" t="s">
         <v>15</v>
       </c>
@@ -7491,8 +6840,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
       <c r="B90" s="4" t="s">
         <v>15</v>
       </c>
@@ -7516,8 +6865,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
       <c r="B91" s="6" t="s">
         <v>15</v>
       </c>
@@ -7541,10 +6890,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" customFormat="1"/>
-    <row r="93" customFormat="1"/>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -7570,8 +6917,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
       <c r="B95" s="4" t="s">
         <v>15</v>
       </c>
@@ -7595,8 +6942,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
       <c r="B96" s="6" t="s">
         <v>15</v>
       </c>
@@ -7620,8 +6967,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
       <c r="B97" s="4" t="s">
         <v>15</v>
       </c>
@@ -7645,8 +6992,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
       <c r="B98" s="6" t="s">
         <v>15</v>
       </c>
@@ -7670,10 +7017,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" customFormat="1"/>
-    <row r="100" customFormat="1"/>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -7699,8 +7044,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
       <c r="B102" s="4" t="s">
         <v>15</v>
       </c>
@@ -7724,8 +7069,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
       <c r="B103" s="6" t="s">
         <v>15</v>
       </c>
@@ -7749,8 +7094,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="1"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
       <c r="B104" s="4" t="s">
         <v>15</v>
       </c>
@@ -7774,8 +7119,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
       <c r="B105" s="6" t="s">
         <v>15</v>
       </c>
@@ -7799,10 +7144,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" customFormat="1"/>
-    <row r="107" customFormat="1"/>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -7828,8 +7171,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
       <c r="B109" s="4" t="s">
         <v>15</v>
       </c>
@@ -7853,8 +7196,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
       <c r="B110" s="6" t="s">
         <v>15</v>
       </c>
@@ -7878,8 +7221,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
       <c r="B111" s="4" t="s">
         <v>15</v>
       </c>
@@ -7903,8 +7246,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
       <c r="B112" s="6" t="s">
         <v>15</v>
       </c>
@@ -7930,29 +7273,29 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A40:A44"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A108:A112"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>